--- a/output/News_Data.xlsx
+++ b/output/News_Data.xlsx
@@ -17,12 +17,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>Title: Ravi: Latest merit increases coming as we invest in you</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+  <si>
+    <t>Cognizant teams up with Horizon Healthcare to support 1.2 million members</t>
+  </si>
+  <si>
+    <t>Written By Blumenthal, Joshua (Cognizant) AVP - Corp. Comm.</t>
+  </si>
+  <si>
+    <t>Written On: Thu, Apr 20, 2023 6:32 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognizant has been selected by Horizon Healthcare Services, Inc (Horizon), New Jersey’s oldest and largest health insurer, to support its government healthcare programs. As part of a 7-year renewal agreement, Cognizant will manage Horizon’s claims processing, encounters submissions to the state, provider configuration, and enrollment services for its 1.2 million Medicaid and Dual Eligible Special Needs Plan (D-SNP) members.
+Cognizant will leverage its TriZetto healthcare products suite to provide end-to-end support for Horizon, including hosting the insurer’s operations on its Facets platform. By utilizing advanced automation solutions, Cognizant will help Horizon expedite the claims payment process and ensure accuracy in support of excellent member-provider experiences.
+“Working together since 2016, Cognizant has streamlined Horizon’s operations and improved the quality of services for Horizon’s growing membership,” said Sanjay Subramaniam, Cognizant Head of Healthcare Payer Services. “During the pandemic, Cognizant was able to quickly scale its services to accommodate Horizon’s member enrollment growing from 850k to 1.2m members. We are proud to continue our work with Horizon and support their government healthcare programs with reliable, efficient, and accurate healthcare technology.”
+“Our collaboration with Cognizant has helped keep Horizon compliant with government requirements and establish us as a market leader in New Jersey for Medicaid, D-SNP and other programs,” said Mark L. Barnard, EVP, Government Programs and Operations at Horizon. “With more than half of New Jerseyans choosing Horizon for their Medicaid coverage, and our plan participant numbers skyrocketing in recent years, Cognizant’s rich expertise in New Jersey state Medicaid requirements and its highly scalable TriZetto Facets platform has helped us provide quality engagement for our membership.”
+Cognizant’s TriZetto Healthcare Products are a portfolio of software solutions that help organizations enhance revenue growth, drive administrative efficiency, improve cost and quality of care, and improve the member and patient experience. TriZetto’s Enterprise portfolio includes 347K+ healthcare providers, 8K+ health insurance payers, and 2.6B annual transactions on its Facets and QNXT platforms. 
+Read the full release here and share on social media. 
+ </t>
+  </si>
+  <si>
+    <t>Ravi: Latest merit increases coming as we invest in you</t>
   </si>
   <si>
     <t>Written By Ravi Kumar S (Cognizant) Chief Executive Officer</t>
+  </si>
+  <si>
+    <t>Written On: Tue, Apr 18, 2023 7:35 PM</t>
   </si>
   <si>
     <t>Team Cognizant,
@@ -34,44 +55,59 @@
 Ravi Kumar S</t>
   </si>
   <si>
-    <t>Title: Cognizant and Guidewire modernize claim operations for the FCCI Insurance Group</t>
-  </si>
-  <si>
-    <t>Written By Zane, Randolph (Cognizant) Public Relations Director</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cognizant and Guidewire  today announced that they have modernized claim operations for the FCCI Insurance Group (FCCI), helping the regional property and casualty insurer to reduce claims processing times and costs and allow agents to focus on improving their customer experiences. Cognizant led the project with FCCI to migrate Guidewire ClaimCenter on Guidewire Cloud, empowering the insurer to manage claims more efficiently across its commercial and surety lines of business.
-“Implementing Guidewire Cloud has enabled us to modernize and transform our claims organization,” said Dave Patel, Chief Information Officer of Commercial Insurance and Senior Vice President, FCCI. “We’re proud to be associated with Cognizant and Guidewire and look forward to our continued work with them in becoming more agile, maximizing efficiency, and accelerating our growth.”
-FCCI selected Cognizant for its expertise in conducting cloud migration assessments and implementing Guidewire products. With a dedicated Guidewire team, Cognizant has played a crucial role in modernizing property and casualty insurance companies’ business processes and technology operations. Cognizant is a Global Premier Partner in the Guidewire PartnerConnect program, an early adopter of Guidewire Cloud, and the first partner to attain the Guidewire InsuranceNow specialization.
-“We congratulate FCCI on achieving this significant milestone in its cloud transformation journey. We are thrilled to see the company continue fulfilling its mission statement of empowering employees to deliver commercial insurance products and exceptional customer service to meet the needs of its valued agency partners and policyholders so they can thrive, manage risks, and face the future with confidence,” said Christina Colby, Guidewire Chief Customer Officer  “We thank FCCI for its continued trust in Guidewire and our cloud services and look forward to our ongoing collaboration and shared success.”
-Cloud computing allows insurers to make faster and more informed business decisions through the utilization of data analytics, machine learning, and robotic process automation. Through its work with Cognizant, FCCI intends to gain access to relevant data, enhancing its ability to gain valuable insights into customer demand and market trends. As a result, FCCI will be able to process claims quicker, automate claims adjustments, and ultimately deliver a superior customer experience.
-“In today's increasingly digital world, customers demand seamless digital experiences and quick processing of their claims,” said Meera Krishnamurthy, SVP and Head of Cognizant Americas Banking, Financial Services and Insurance. “As FCCI expands its presence throughout the United States, Cognizant is excited to offer advisory, consulting, and technology services to help mid-market carriers like FCCI on their journey toward digital transformation. Our expertise in Guidewire products can help insurers optimize their claims operations and enhance the customer experience.”
-Read the full press release here and share on social media. </t>
-  </si>
-  <si>
-    <t>Title: How do I refer a friend to Cognizant – and get paid for it?</t>
-  </si>
-  <si>
-    <t>Written By Lang, Jeremy (Cognizant) Assoc. Director - Marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The next amazing person to join Cognizant is probably in your network. When you refer top-tier talent through our Global Referral Portal, you may be eligible for a cash bonus.     
-First, what you need to know: 
-Your candidate MUST apply through the referral portal and NOT the Cognizant Careers website for you to be considered for a bonus.   
-The referral team is looking for candidates with top-tier level experience. We want your best professional contacts who fit the job requirements. If the job calls for experience in Java, they need experience in Java. 
-For specific referral qualifications, which can vary by geo, please review the Global Referral Policy.  
-How to refer a friend: 
-Follow this link to the Referral Portal or search “global referral” on OneCognizant. 
-Once in the portal, you can search by job title or job number. 
-You’ll fill out some initial information about your candidate. You can include their resume and LinkedIn page. 
-Your candidate will receive an email invitation to complete their application in the referral portal, then the HR team takes over. 
-For questions, head to page 8 of the referral policy to find the right contact for your geo. </t>
-  </si>
-  <si>
-    <t>Title: North America Bench Bootcamp: Associates upskill to find their next step faster</t>
+    <t>Deals and Wins: from BPaaS transformation to supporting a large footwear manufacturer</t>
   </si>
   <si>
     <t>Written By Bacon, Willow (Contractor) Contractor</t>
+  </si>
+  <si>
+    <t>Written On: Thu, Apr 13, 2023 1:32 AM</t>
+  </si>
+  <si>
+    <t>Congratulations to everyone working to serve our clients, drive growth and maintain our culture—now more than ever. Here’s a sampling of recent wins, captured by the Global Sales Intelligence Cell. If you have questions about these deals or if you’ve signed a deal, please email  GSIC@cognizant.com
+Deal: A U.S.-based multinational company engaged in the design and sales of footwear, equipment, accessories and services chose us to provide application, solution, platform and service desk support. 
+Categories: Cloud, Business Operations, Application Development Management, Software &amp;Platform Engineering
+We took full advantage of our strong executive relationships and direct access to key decision makers.
+We placed a strong emphasis on understanding the client’s desired business outcomes and then built a solution that delivered on those requirements.
+We also showcased our extensive resources and expertise in the relevant domains to land the deal.
+Deal: One of the largest nonprofit providers of health plans in the U.S. extended our current deal to provide end-to-end BPaaS operational support. 
+Categories: Cloud, Business Operations
+We built on our existing position as the client’s strategic partner and highlighted our excellent delivery track record.
+The delivery team maintained a high level of engagement throughout the deal pursuit, which resonated well with the client.
+Deal: A German multinational science and technology company tapped us to become their single supplier for application management services across the majority of their IT business. 
+Categories: Enterprise Application Software, Artificial Intelligence &amp; Analytics
+To establish ourselves as the partner of choice, we showcased our commitment to end-to-end ownership of the client’s IT business.
+Our strong relationships with key stakeholders also gave us an advantage.
+Deal: A U.S. multinational medical devices and health care company selected us to provide product QA, automation services, and business process solutions.
+Categories: Business Operations, Enterprise Automation
+Our excellent delivery track record over the past seven years served as a key catalyst to this win.
+We also leaned into our deep-rooted relationships with client leadership to further strengthen our position.
+To clinch the deal, our delivery team offered solutions that demonstrated a deep understanding of the client’s business.
+Deal: A US-based healthcare company approached us to expand their offerings to a full BPaaS model.
+Categories: Business Operations, Automation
+We took a collaborative approach to establish ourselves as a true partner.
+To solidify our proposal, we offered additional services and products to support the complete end-to-end BPaaS model.
+Finally, our world-class teams, attention to detail and timely responses helped us outclass the competition.
+Deal: A U.S. financial, retirement, investment and insurance company selected us to support and maintain over 700 applications across seven lines of their business.
+Categories: Application Development Management, Artificial Intelligence &amp; Analytics, Cloud
+We highlighted our stellar delivery track record in this space to establish credibility and secure the deal.
+We also won the client’s confidence by bringing in SMEs with sound knowledge of the client’s landscape across multiple technologies and service lines.
+Deal: A British telecommunications provider awarded us a contract to provide end-to-end testing services.
+Categories: Artificial Intelligence &amp; Analytics, Cloud, Software Platform Engineering, QE&amp;A
+We leveraged our strong relationships with key stakeholders and provided positive references from other relevant clients.
+Our solutions were in lockstep with the client’s business requirements, which helped us stay ahead in the game.
+The strong alignment of our commercial interests with the client’s was also a deciding factor.
+Deal: In a vendor consolidation contract, a U.S. multinational telecommunications conglomerate selected us to deliver digital transformation and modernization services to their Consumer Business unit.
+Categories: Application Development Management, Digital Engineering, Enterprise Application Services
+We tapped into our strong executive-level connections to sharpen our competitive edge.
+Our outstanding past delivery record and incumbent status also helped establish us as the clear choice.
+If you’d like to learn more about these wins or tell us about a deal that you recently landed, please contact the Global Sales Intelligence Cell at GSIC@cognizant.com.</t>
+  </si>
+  <si>
+    <t>North America Bench Bootcamp: Associates upskill to find their next step faster</t>
+  </si>
+  <si>
+    <t>Written On: Tue, Apr 11, 2023 9:36 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Whether your current project has come to an end or you’ve decided to pursue a different path at Cognizant, our “bench” (also known as the deployment pool) offers the chance to explore new jobs across the company and skill up for your next career move.   
@@ -91,7 +127,10 @@
 And whether you’re on the bench or not, he encourages every associate to take advantage of the many learning resources available in My Learning Studio. “Be sure to brush up on your basics,” he advised. “It can be tempting to always chase after the latest new skill, but they’re so much easier to learn when you’ve got a strong foundation.” </t>
   </si>
   <si>
-    <t>Title: Associates log over 5,500 learning hours at PRoDIGI 2022</t>
+    <t>Associates log over 5,500 learning hours at PRoDIGI 2022</t>
+  </si>
+  <si>
+    <t>Written On: Thu, Apr 6, 2023 11:11 PM</t>
   </si>
   <si>
     <t xml:space="preserve">The more you know, the more you can create game-changing solutions. That’s the thinking behind PRoDIGI, an annual innovation contest held by the Products &amp; Resources MDU that sharpens associates’ skills while bringing out the best of their creative abilities.  
@@ -107,10 +146,13 @@
 “We believe that authentic learning comes not only from theoretical content, but also from a hands-on approach blended with futuristic thinking,” he said. “That’s why PRoDIGI is equipping our associates to meet the digital needs of tomorrow.”  </t>
   </si>
   <si>
-    <t>Title: Empowering businesses to run themselves through AI-led IT operations</t>
+    <t>Empowering businesses to run themselves through AI-led IT operations</t>
   </si>
   <si>
     <t>Written By Gorelick, Benjamin (Cognizant) Associate Director</t>
+  </si>
+  <si>
+    <t>Written On: Mon, Apr 3, 2023 8:05 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Cognizant’s new Neuro IT Operations platform puts AI-powered automation at the center of IT operations and enables clients to succeed in the next wave of digital transformation. 
@@ -145,13 +187,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="17.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,18 +221,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -195,7 +243,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -209,6 +257,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -216,7 +269,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -226,20 +279,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -247,30 +305,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="190.76953125" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <col min="1" max="1" width="255.0" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -278,7 +341,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -288,18 +351,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -309,7 +377,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,18 +387,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -340,7 +413,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -350,18 +423,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
